--- a/biology/Microbiologie/Gracilicutes/Gracilicutes.xlsx
+++ b/biology/Microbiologie/Gracilicutes/Gracilicutes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gracilicutes (signification latine : gracilis, mince, et cutis, la peau, se référant à la paroi cellulaire) sont une division de bactéries décrite par Norman Edwin Gibbons et Robert George Everitt Murray en 1978.
-C’est un taxon proposé par[réf. nécessaire] Cavalier-Smith, qu'il estime être un groupe monophylétique comprenant[1] :
+C’est un taxon proposé par[réf. nécessaire] Cavalier-Smith, qu'il estime être un groupe monophylétique comprenant :
 les protéobactéries,
 les planctobactéries (composé de chlamydiae et de Planctomycetes),
 les sphingobactéries (comprenant les bactéries vertes sulfureuses) et
@@ -517,7 +529,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Norman Edwin Gibbons et R. G. E. Murray, « Proposals Concerning the Higher Taxa of Bacteria », International Journal of Systematic Bacteriology, vol. 28, no 1,‎ 1er janvier 1978, p. 1–6 (ISSN 0020-7713, 1465-2102 et 1070-6259, DOI 10.1099/00207713-28-1-1)</t>
         </is>
@@ -547,9 +561,11 @@
           <t>Liste des embranchements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (12 avril 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (12 avril 2020) :
 embranchement des Cyanobacteria Stanier ex Cavalier-Smith, 2002</t>
         </is>
       </c>
